--- a/Data Files/Input Validation/06. detail2/Typecode 6/Auto_Detail2_TC6_C3.xlsx
+++ b/Data Files/Input Validation/06. detail2/Typecode 6/Auto_Detail2_TC6_C3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAEBD66-BD4D-4DE7-9256-539EF8CDF933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB2C64E-9496-45D4-9DA7-7398C97AC14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -282,7 +282,7 @@
     <t/>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-05-02</t>
   </si>
 </sst>
 </file>
